--- a/components/mockup-data/data/presentationTheme.xlsx
+++ b/components/mockup-data/data/presentationTheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Học kì VII\Web\Kahoot\BE\components\mockup-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FB3A68-BEC0-413C-B50F-38E3118DEA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFB6557-FB11-4B33-B06A-C880A746C544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2976" yWindow="1728" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,12 +30,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
     <t>text_color</t>
   </si>
   <si>
@@ -46,6 +40,12 @@
   </si>
   <si>
     <t>background_color</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Dark</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -380,32 +380,32 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/components/mockup-data/data/presentationTheme.xlsx
+++ b/components/mockup-data/data/presentationTheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Học kì VII\Web\Kahoot\BE\components\mockup-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFB6557-FB11-4B33-B06A-C880A746C544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE2ED82-CA7A-4C92-9455-4739AAB93A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2976" yWindow="1728" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,7 +366,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
